--- a/public/asset/doc/template_import_data_penerima_beasiswa.xlsx
+++ b/public/asset/doc/template_import_data_penerima_beasiswa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isata\OneDrive\Dokumen\Tugas\Penelitian Ilmiah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\codeigniter-MBUG\public\asset\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2093271-E233-42A8-A17B-B0E2FAC23201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E07662-B3E4-4825-A510-BDABADCF036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{26AAE6AC-F84B-4B4A-B608-F128D13C2099}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26AAE6AC-F84B-4B4A-B608-F128D13C2099}"/>
   </bookViews>
   <sheets>
     <sheet name="daftar_penerima_beasiswa___mbug" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Keterangan" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">daftar_penerima_beasiswa___mbug!$A$1:$H$19</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Nama</t>
   </si>
@@ -61,13 +61,37 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>ISI PAKAI ANGKA</t>
+  </si>
+  <si>
+    <t>Tidak Aktif</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Lulus</t>
+  </si>
+  <si>
+    <t>Kolom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +99,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,12 +142,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,22 +694,22 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,12 +745,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E68CCB6-D69B-4EFC-9C6E-88AC591745E7}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
